--- a/Bots/ExcelFiles/Domains.xlsx
+++ b/Bots/ExcelFiles/Domains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\GitHub\work_bot\Bots\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61DD74E-38DA-49D8-942C-1AFC31801B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317A3DCF-DB92-44E0-86AB-D6DE1C8602E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="2325" windowWidth="17520" windowHeight="12615" xr2:uid="{999E04F7-8784-4896-B0C5-43DCA0F0D1DA}"/>
+    <workbookView xWindow="19365" yWindow="2325" windowWidth="9255" windowHeight="12615" xr2:uid="{999E04F7-8784-4896-B0C5-43DCA0F0D1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>roboscompython.com.br</t>
   </si>
@@ -421,64 +421,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BFFA20-AFDB-4C7A-A4A3-57DC54828371}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
